--- a/【管理】画面設計書_ヘッダー.xlsx
+++ b/【管理】画面設計書_ヘッダー.xlsx
@@ -182,13 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【管理】画面設計書_共通</t>
-    <rPh sb="10" eb="12">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>トップページ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -364,6 +357,10 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【管理】画面設計書_ヘッダー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -698,6 +695,33 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,41 +743,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,6 +792,359 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1390650"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="1390650"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292474</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="1381125"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>301999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="1371600"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>73399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="1228725"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>53</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>263899</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="1362075"/>
+          <a:ext cx="273424" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,626 +1446,626 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="16" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="14">
+      <c r="V1" s="25"/>
+      <c r="W1" s="23">
         <v>42449</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="16" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="25"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="16" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="23">
         <v>42449</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <f t="shared" ref="B6:B20" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -1788,92 +2138,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="16" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="16" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="14">
+      <c r="V1" s="25"/>
+      <c r="W1" s="23">
         <v>42449</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="16" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="25"/>
+      <c r="W2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="16" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1881,37 +2231,37 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="26"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="16"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="27"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1938,10 +2288,10 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="28"/>
+      <c r="AC6" s="18"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B7" s="27"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1968,52 +2318,52 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="18"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B8" s="27"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="32" t="s">
-        <v>19</v>
+      <c r="D8" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="32" t="s">
-        <v>20</v>
+      <c r="I8" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="32" t="s">
-        <v>21</v>
+      <c r="L8" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="32" t="s">
-        <v>22</v>
+      <c r="P8" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="32"/>
+      <c r="T8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="22"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="8"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="28"/>
+      <c r="AC8" s="18"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B9" s="27"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2040,10 +2390,10 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
-      <c r="AC9" s="28"/>
+      <c r="AC9" s="18"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B10" s="27"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2070,37 +2420,37 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="28"/>
+      <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="31"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
@@ -2108,311 +2458,305 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="21"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="31"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B15" s="13"/>
-      <c r="C15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
+      <c r="C15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B16" s="13"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20" t="s">
+      <c r="D16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="21"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B17" s="13"/>
       <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="21"/>
+      <c r="D17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="31"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B18" s="13"/>
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="21"/>
+      <c r="D18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="31"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B19" s="13"/>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="21"/>
+      <c r="D19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="31"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B20" s="13"/>
       <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="21"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="31"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
       <c r="C21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="21"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:AC20"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="Z1:AA1"/>
@@ -2429,11 +2773,6 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:AC19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:AC14"/>
-    <mergeCell ref="C15:AC15"/>
     <mergeCell ref="L16:AC16"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="H16:K16"/>
@@ -2441,12 +2780,24 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:AC17"/>
     <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:AC21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:AC14"/>
+    <mergeCell ref="C15:AC15"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:AC20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>